--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1052.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1052.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.885474164329435</v>
+        <v>1.44992995262146</v>
       </c>
       <c r="B1">
-        <v>2.550974516363659</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.932639362067043</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.806905329122431</v>
+        <v>1.273595094680786</v>
       </c>
       <c r="E1">
-        <v>1.633949499098651</v>
+        <v>0.846489429473877</v>
       </c>
     </row>
   </sheetData>
